--- a/file/temp/学工_1.3_外供数据检查确认.xlsx
+++ b/file/temp/学工_1.3_外供数据检查确认.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="外供数据检查" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="产品线对外数据要求数据检查" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23224,4 +23225,4859 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>业务表名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>字段名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>字段中文名ccc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>值空间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>标准业务域</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>表/视图名称</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>字段名</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>标准类型</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>长度/值域</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>业务线确认</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>标准确认</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>标准修订状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>XXDM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>血型代码</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>T_ZXBZ_XX</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>学校管理</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>公共_本专科生</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>血型</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>血型</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RDSJ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>入党日期</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SSDZB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>所属党支部</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KM1FS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>科目1分数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>学工_本专科生_新生信息</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>科目1分数</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KM 2FS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>科目2分数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>学工_本专科生_新生信息</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>科目2分数</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KM 3FS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>科目3分数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>学工_本专科生_新生信息</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>科目3分数</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KM 4FS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>科目4分数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>学工_本专科生_新生信息</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>科目4分数</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KM 5FS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>科目5分数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>学工_本专科生_新生信息</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>科目5分数</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSZGH</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>导师职工号</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>本专科生管理域</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>学工_本专科生_学籍信息</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>导师职工号</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SJCJ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>四级成绩</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LJCJ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>六级成绩</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LWDBRQ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>论文答辩日期</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SYDM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>书院代码</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>40</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SYBJDM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>书院班级代码</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>记录主键</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>40</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JKZKDM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>健康状况</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>T_ZXBZ_JKZK</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>学校管理</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>公共_教职工</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>健康状况</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>健康状况</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CJGZRQ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>参加工作年月</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>学校管理</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>公共_教职工</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>参加工作年月</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DEDPDM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>第二党派代码</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CJDEDPRQ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>第二党派日期</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ZTBHRQ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>状态变化日期</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CJDPRQ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>授学位年月</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>XXDM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>血型</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>T_ZXBZ_XX</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>学校管理</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>公共_教职工</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>血型</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>血型</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DABH</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>档案编号</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SFZJYXQ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>身份证件有效期</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SFYHWGZJL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>是否海外工作经历</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SFYHWXXJL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>是否海外学习经历</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JZGRYLBDM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>教职工人员类别</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>教职工信息表</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ZBQKDM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>缺字段中文名</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>学生成绩明细信息</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>XF</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>学分</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>(5,2)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>教务_成绩记录</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>学分</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>增加字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>学生成绩明细信息</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SFYX</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>是否有效</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0否1是</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>学生成绩明细信息</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TSYYDM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>特殊原因代码</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>作弊、缺考、取消考试资格</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>学生成绩明细信息</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>学生成绩排名信息</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BXKMS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>必修课门数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>教务_学生考试情况</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>必修课门数</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>学生成绩排名信息</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BXKJGMS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>必修课及格门数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>教务_学生考试情况</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>必修课及格门数</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>学生成绩排名信息</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>XXKMS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>选修课门数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>教务_学生考试情况</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>选修课门数</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>学生成绩排名信息</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>XXKJGMS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>选修课及格门数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>教务_学生考试情况</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>选修课及格门数</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>学生成绩排名信息</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BJGMS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>不及格门数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>从明细表计算</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>40</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TDKCH</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>替代课程号</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KCXZDM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>课程性质代码</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>XKZY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>选课志愿</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>XKZT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>选课状态</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SFKT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>是否可退</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BZ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SFYZ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>是否预置</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>XKLCDM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>选课轮次代码</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>40</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>选课结果表</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SFBZKRL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>是否不占课容量</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>选课地点表</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KBID</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>课表ID</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>选课地点表</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BZ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>500</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>选课地点表</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SJSM</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>时间说明</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>选课地点表</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>XSLXDM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>学时类型代码</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>40</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XSBH</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>60</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>YXXF</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>已修学分</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>已修学分</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>XXXF</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>需修学分</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>需修学分</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BXYXXF</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>必修已修学分</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>必修已修学分</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BXXXXF</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>必修需修学分</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>必修需修学分</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>XXYXXF</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>选修已修学分</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>选修已修学分</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>学生学分表</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>XXXXXF</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>选修需修学分</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>本专科生教学域</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>教务_学生学分信息</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>选修需修学分</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>业务线提供视图</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>学生一卡通消费地点表</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>40</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>学生一卡通消费地点表</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>XFBZ</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>300</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>学生一卡通消费明细表</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>XFBZ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>200</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>缴费记录ID</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>60</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>XSBH</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>40</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>60</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>XN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>学年编码</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>60</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JFQK</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>缴费情况</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>缴费情况</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>10</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>YSJE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>应收金额</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>应缴金额</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>19</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>YISJE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>已收金额</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>已收金额</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>19</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HJJE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>缓缴金额</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>缓缴金额</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>19</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>WJJE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>未缴金额</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>未缴金额</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>19</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SFHJF</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>是否缓缴费</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>是否缓缴费</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>19</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>HJFRQ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>缓缴费日期</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>40</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>缓缴费日期</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>19</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HJFYY</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>缓缴费原因</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>900</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>财务管理域</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>财务_学生缴费记录</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>缓缴费原因</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>19</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>缴费信息</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HJFBZ</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>缓缴费备注</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>40</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>借书记录ID</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>60</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>XSBH</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>40</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>60</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SJBH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>书籍编号</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>40</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>书籍编号</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>60</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>书名</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>300</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>书名</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>200</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>JCSJ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>借出时间</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>20</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>借出时间</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>32</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>借书记录</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GHSJ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>归还时间</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>图书馆管理域</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>图书馆_学生借书记录</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>归还时间</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>32</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>40</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>教学管理域</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>教务_课程考勤记录</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>记录ID</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>60</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>XSBH</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>学生编号</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>40</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>教学管理域</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>教务_课程考勤记录</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>学号</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>60</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KCDM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>课程代码</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>40</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>教学管理域</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>教务_课程</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>课程编码</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>60</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>KCMC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>课程名称</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>300</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>教学管理域</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>教务_课程</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>课程编码</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>100</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SKRQ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上课日期</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>40</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>教学管理域</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>教务_课程考勤记录</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>考勤日期</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>8</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>缺课记录</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>课时</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>XSLBDM</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>学生类别</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ZZC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>总周次</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ZJXZC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>总教学周次</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SFJJ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>上午几节</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>XFJJ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>下午几节</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>WSJJ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>晚上几节</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PX</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SFSY</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>是否使用</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>学校校历表</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>XXXQ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>学校校区</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>40</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>人脸识别设备监测情况</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>XN</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>人脸识别设备监测情况</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>XQ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>学期</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>缺</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>增加表</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>人脸识别设备地点</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>WID</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Varchar2</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>40</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>删除字段需求</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>非业务数据</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>无修订</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>